--- a/artfynd/A 60543-2023 artfynd.xlsx
+++ b/artfynd/A 60543-2023 artfynd.xlsx
@@ -915,7 +915,7 @@
         <v>63742780</v>
       </c>
       <c r="B4" t="n">
-        <v>108854</v>
+        <v>108858</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/artfynd/A 60543-2023 artfynd.xlsx
+++ b/artfynd/A 60543-2023 artfynd.xlsx
@@ -915,7 +915,7 @@
         <v>63742780</v>
       </c>
       <c r="B4" t="n">
-        <v>108858</v>
+        <v>108865</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/artfynd/A 60543-2023 artfynd.xlsx
+++ b/artfynd/A 60543-2023 artfynd.xlsx
@@ -915,7 +915,7 @@
         <v>63742780</v>
       </c>
       <c r="B4" t="n">
-        <v>108865</v>
+        <v>108868</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/artfynd/A 60543-2023 artfynd.xlsx
+++ b/artfynd/A 60543-2023 artfynd.xlsx
@@ -915,7 +915,7 @@
         <v>63742780</v>
       </c>
       <c r="B4" t="n">
-        <v>108868</v>
+        <v>108869</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
